--- a/Templates/TO_by_executor.xlsx
+++ b/Templates/TO_by_executor.xlsx
@@ -42,9 +42,6 @@
     <t>УНП</t>
   </si>
   <si>
-    <t>Номер ККМ</t>
-  </si>
-  <si>
     <t>Район установки</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Принял бухгалтер  _________________________________________</t>
+  </si>
+  <si>
+    <t>Номер (или количество) ККМ</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,15 +453,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/TO_by_executor.xlsx
+++ b/Templates/TO_by_executor.xlsx
@@ -428,9 +428,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
